--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Angpt1-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Angpt1-Itga5.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Angpt1</t>
+  </si>
+  <si>
+    <t>Itga5</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Angpt1</t>
-  </si>
-  <si>
-    <t>Itga5</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -531,25 +531,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>20.22494433333334</v>
+        <v>0.1497083333333333</v>
       </c>
       <c r="H2">
-        <v>60.67483300000001</v>
+        <v>0.449125</v>
       </c>
       <c r="I2">
-        <v>0.9541201174409912</v>
+        <v>0.006513369349540601</v>
       </c>
       <c r="J2">
-        <v>0.9683117878380343</v>
+        <v>0.006769619242096868</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N2">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O2">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P2">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q2">
-        <v>671.6995656797287</v>
+        <v>4.319861554569445</v>
       </c>
       <c r="R2">
-        <v>6045.296091117559</v>
+        <v>38.878753991125</v>
       </c>
       <c r="S2">
-        <v>0.2018729122060696</v>
+        <v>0.001302446674045211</v>
       </c>
       <c r="T2">
-        <v>0.2106350960039155</v>
+        <v>0.001384057676545382</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,25 +593,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>20.22494433333334</v>
+        <v>0.1497083333333333</v>
       </c>
       <c r="H3">
-        <v>60.67483300000001</v>
+        <v>0.449125</v>
       </c>
       <c r="I3">
-        <v>0.9541201174409912</v>
+        <v>0.006513369349540601</v>
       </c>
       <c r="J3">
-        <v>0.9683117878380343</v>
+        <v>0.006769619242096868</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>153.522748</v>
       </c>
       <c r="O3">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P3">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q3">
-        <v>1034.996344066788</v>
+        <v>7.661211577277778</v>
       </c>
       <c r="R3">
-        <v>9314.967096601087</v>
+        <v>68.9509041955</v>
       </c>
       <c r="S3">
-        <v>0.3110583016202524</v>
+        <v>0.002309870215036702</v>
       </c>
       <c r="T3">
-        <v>0.3245596177743496</v>
+        <v>0.002454606139854986</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,25 +655,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>20.22494433333334</v>
+        <v>0.1497083333333333</v>
       </c>
       <c r="H4">
-        <v>60.67483300000001</v>
+        <v>0.449125</v>
       </c>
       <c r="I4">
-        <v>0.9541201174409912</v>
+        <v>0.006513369349540601</v>
       </c>
       <c r="J4">
-        <v>0.9683117878380343</v>
+        <v>0.006769619242096868</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N4">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O4">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P4">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q4">
-        <v>448.8826011642959</v>
+        <v>4.400448751958333</v>
       </c>
       <c r="R4">
-        <v>4039.943410478663</v>
+        <v>39.604038767625</v>
       </c>
       <c r="S4">
-        <v>0.1349073939685693</v>
+        <v>0.001326743871046526</v>
       </c>
       <c r="T4">
-        <v>0.1407629759222014</v>
+        <v>0.001409877330200576</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>20.22494433333334</v>
+        <v>0.1497083333333333</v>
       </c>
       <c r="H5">
-        <v>60.67483300000001</v>
+        <v>0.449125</v>
       </c>
       <c r="I5">
-        <v>0.9541201174409912</v>
+        <v>0.006513369349540601</v>
       </c>
       <c r="J5">
-        <v>0.9683117878380343</v>
+        <v>0.006769619242096868</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N5">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O5">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P5">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q5">
-        <v>260.4209641858916</v>
+        <v>1.4220894139375</v>
       </c>
       <c r="R5">
-        <v>1562.525785115349</v>
+        <v>8.532536483625002</v>
       </c>
       <c r="S5">
-        <v>0.07826704247831116</v>
+        <v>0.0004287627286153633</v>
       </c>
       <c r="T5">
-        <v>0.05444278721764347</v>
+        <v>0.0003037526002829342</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>20.22494433333334</v>
+        <v>0.1497083333333333</v>
       </c>
       <c r="H6">
-        <v>60.67483300000001</v>
+        <v>0.449125</v>
       </c>
       <c r="I6">
-        <v>0.9541201174409912</v>
+        <v>0.006513369349540601</v>
       </c>
       <c r="J6">
-        <v>0.9683117878380343</v>
+        <v>0.006769619242096868</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N6">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O6">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P6">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q6">
-        <v>758.6813747896858</v>
+        <v>3.799464209680555</v>
       </c>
       <c r="R6">
-        <v>6828.132373107172</v>
+        <v>34.195177887125</v>
       </c>
       <c r="S6">
-        <v>0.2280144671677887</v>
+        <v>0.001145545860796799</v>
       </c>
       <c r="T6">
-        <v>0.2379113109199243</v>
+        <v>0.00121732549521299</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,25 +841,25 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.040521</v>
+        <v>20.22494433333334</v>
       </c>
       <c r="H7">
-        <v>0.121563</v>
+        <v>60.67483300000001</v>
       </c>
       <c r="I7">
-        <v>0.001911594941455862</v>
+        <v>0.8799278542737426</v>
       </c>
       <c r="J7">
-        <v>0.00194002818046413</v>
+        <v>0.9145460996110527</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N7">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O7">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P7">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q7">
-        <v>1.345760841282</v>
+        <v>583.5944968697389</v>
       </c>
       <c r="R7">
-        <v>12.111847571538</v>
+        <v>5252.35047182765</v>
       </c>
       <c r="S7">
-        <v>0.0004044556138540413</v>
+        <v>0.1759548776823793</v>
       </c>
       <c r="T7">
-        <v>0.0004220107894738496</v>
+        <v>0.186980168965787</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,25 +903,25 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.040521</v>
+        <v>20.22494433333334</v>
       </c>
       <c r="H8">
-        <v>0.121563</v>
+        <v>60.67483300000001</v>
       </c>
       <c r="I8">
-        <v>0.001911594941455862</v>
+        <v>0.8799278542737426</v>
       </c>
       <c r="J8">
-        <v>0.00194002818046413</v>
+        <v>0.9145460996110527</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>153.522748</v>
       </c>
       <c r="O8">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P8">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q8">
-        <v>2.073631757236</v>
+        <v>1034.996344066787</v>
       </c>
       <c r="R8">
-        <v>18.662685815124</v>
+        <v>9314.967096601085</v>
       </c>
       <c r="S8">
-        <v>0.0006232102908278749</v>
+        <v>0.3120534139694428</v>
       </c>
       <c r="T8">
-        <v>0.0006502603940500874</v>
+        <v>0.3316066075512963</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,25 +965,25 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.040521</v>
+        <v>20.22494433333334</v>
       </c>
       <c r="H9">
-        <v>0.121563</v>
+        <v>60.67483300000001</v>
       </c>
       <c r="I9">
-        <v>0.001911594941455862</v>
+        <v>0.8799278542737426</v>
       </c>
       <c r="J9">
-        <v>0.00194002818046413</v>
+        <v>0.9145460996110527</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N9">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O9">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P9">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q9">
-        <v>0.8993434830769999</v>
+        <v>594.4814765380024</v>
       </c>
       <c r="R9">
-        <v>8.094091347692999</v>
+        <v>5350.333288842022</v>
       </c>
       <c r="S9">
-        <v>0.0002702891251962933</v>
+        <v>0.1792373232608328</v>
       </c>
       <c r="T9">
-        <v>0.0002820208774539283</v>
+        <v>0.1904682918127599</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.040521</v>
+        <v>20.22494433333334</v>
       </c>
       <c r="H10">
-        <v>0.121563</v>
+        <v>60.67483300000001</v>
       </c>
       <c r="I10">
-        <v>0.001911594941455862</v>
+        <v>0.8799278542737426</v>
       </c>
       <c r="J10">
-        <v>0.00194002818046413</v>
+        <v>0.9145460996110527</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N10">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O10">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P10">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q10">
-        <v>0.5217575740065</v>
+        <v>192.1180911811315</v>
       </c>
       <c r="R10">
-        <v>3.130545444039</v>
+        <v>1152.708547086789</v>
       </c>
       <c r="S10">
-        <v>0.0001568092735383539</v>
+        <v>0.05792397874836959</v>
       </c>
       <c r="T10">
-        <v>0.0001090769964301079</v>
+        <v>0.0410356544291295</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.040521</v>
+        <v>20.22494433333334</v>
       </c>
       <c r="H11">
-        <v>0.121563</v>
+        <v>60.67483300000001</v>
       </c>
       <c r="I11">
-        <v>0.001911594941455862</v>
+        <v>0.8799278542737426</v>
       </c>
       <c r="J11">
-        <v>0.00194002818046413</v>
+        <v>0.9145460996110527</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N11">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O11">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P11">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q11">
-        <v>1.520030289388</v>
+        <v>513.2910802378952</v>
       </c>
       <c r="R11">
-        <v>13.680272604492</v>
+        <v>4619.619722141058</v>
       </c>
       <c r="S11">
-        <v>0.0004568306380392988</v>
+        <v>0.1547582606127182</v>
       </c>
       <c r="T11">
-        <v>0.0004766591230561568</v>
+        <v>0.1644553768520801</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.932017</v>
+        <v>2.610123</v>
       </c>
       <c r="H12">
-        <v>1.864034</v>
+        <v>5.220245999999999</v>
       </c>
       <c r="I12">
-        <v>0.04396828761755307</v>
+        <v>0.1135587763767167</v>
       </c>
       <c r="J12">
-        <v>0.02974818398150156</v>
+        <v>0.07868428114685043</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N12">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O12">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P12">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q12">
-        <v>30.953628538514</v>
+        <v>75.31558029767301</v>
       </c>
       <c r="R12">
-        <v>185.721771231084</v>
+        <v>451.893481786038</v>
       </c>
       <c r="S12">
-        <v>0.009302818485659337</v>
+        <v>0.02270779417889612</v>
       </c>
       <c r="T12">
-        <v>0.006471068169970285</v>
+        <v>0.01608710615030409</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.932017</v>
+        <v>2.610123</v>
       </c>
       <c r="H13">
-        <v>1.864034</v>
+        <v>5.220245999999999</v>
       </c>
       <c r="I13">
-        <v>0.04396828761755307</v>
+        <v>0.1135587763767167</v>
       </c>
       <c r="J13">
-        <v>0.02974818398150156</v>
+        <v>0.07868428114685043</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>153.522748</v>
       </c>
       <c r="O13">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P13">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q13">
-        <v>47.69527034090534</v>
+        <v>133.571085192668</v>
       </c>
       <c r="R13">
-        <v>286.1716220454321</v>
+        <v>801.4265111560079</v>
       </c>
       <c r="S13">
-        <v>0.01433435960678472</v>
+        <v>0.04027194238986189</v>
       </c>
       <c r="T13">
-        <v>0.009971023118570295</v>
+        <v>0.02853024855697953</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,7 +1275,7 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.932017</v>
+        <v>2.610123</v>
       </c>
       <c r="H14">
-        <v>1.864034</v>
+        <v>5.220245999999999</v>
       </c>
       <c r="I14">
-        <v>0.04396828761755307</v>
+        <v>0.1135587763767167</v>
       </c>
       <c r="J14">
-        <v>0.02974818398150156</v>
+        <v>0.07868428114685043</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N14">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O14">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P14">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q14">
-        <v>20.68565472389566</v>
+        <v>76.72059558791699</v>
       </c>
       <c r="R14">
-        <v>124.113928343374</v>
+        <v>460.3235735275019</v>
       </c>
       <c r="S14">
-        <v>0.006216876671308056</v>
+        <v>0.02313140902595651</v>
       </c>
       <c r="T14">
-        <v>0.00432447787800528</v>
+        <v>0.01638721178618477</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.932017</v>
+        <v>2.610123</v>
       </c>
       <c r="H15">
-        <v>1.864034</v>
+        <v>5.220245999999999</v>
       </c>
       <c r="I15">
-        <v>0.04396828761755307</v>
+        <v>0.1135587763767167</v>
       </c>
       <c r="J15">
-        <v>0.02974818398150156</v>
+        <v>0.07868428114685043</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N15">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O15">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P15">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q15">
-        <v>12.0008619938505</v>
+        <v>24.7937319501795</v>
       </c>
       <c r="R15">
-        <v>48.003447975402</v>
+        <v>99.17492780071801</v>
       </c>
       <c r="S15">
-        <v>0.00360674486551161</v>
+        <v>0.007475358482616539</v>
       </c>
       <c r="T15">
-        <v>0.00167257496083183</v>
+        <v>0.003530561194804533</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.932017</v>
+        <v>2.610123</v>
       </c>
       <c r="H16">
-        <v>1.864034</v>
+        <v>5.220245999999999</v>
       </c>
       <c r="I16">
-        <v>0.04396828761755307</v>
+        <v>0.1135587763767167</v>
       </c>
       <c r="J16">
-        <v>0.02974818398150156</v>
+        <v>0.07868428114685043</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N16">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O16">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P16">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q16">
-        <v>34.96197206940933</v>
+        <v>66.24259786048898</v>
       </c>
       <c r="R16">
-        <v>209.771832416456</v>
+        <v>397.4555871629339</v>
       </c>
       <c r="S16">
-        <v>0.01050748798828936</v>
+        <v>0.01997227229938563</v>
       </c>
       <c r="T16">
-        <v>0.007309039854123871</v>
+        <v>0.01414915345857752</v>
       </c>
     </row>
   </sheetData>
